--- a/PECL1/Distancias.xlsx
+++ b/PECL1/Distancias.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2018_2019/IA/LAB/PECL1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A59FE26-14F8-4240-A8F6-6A13096C6632}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5246C0B8-8021-1E48-B385-E9B6338C43D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="32940" windowHeight="20540" xr2:uid="{7AF5CB30-E2E6-C94E-B915-CE30110590AF}"/>
+    <workbookView xWindow="17120" yWindow="460" windowWidth="16480" windowHeight="20540" xr2:uid="{7AF5CB30-E2E6-C94E-B915-CE30110590AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7156805E-2F76-9A4D-A22B-2CEC5213839E}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
